--- a/pred_ohlcv/54_21/2020-01-12 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 XLM ohlcv.xlsx
@@ -1900,7 +1900,7 @@
         <v>890730.4366722094</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>870729.4436722094</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>860729.4436722094</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>852237.3970722094</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>852537.3970722094</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>860865.3970722094</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>790743.3948722094</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>789280.0587722094</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>148134.2892426696</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>173981.6262426696</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>188305.9742426696</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>101351.9004426696</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>115685.2795426697</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>80311.38704266965</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>66146.40284266965</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>84885.87463300965</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>83611.78363300965</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>82031.08943300965</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>44141.68923300965</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-161069.2121669904</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-164835.4115669904</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-164835.4115669904</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-227431.6580669904</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-227431.6580669904</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-228205.6580669904</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-219490.4035669904</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-207978.9849407804</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-207978.9849407804</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-175098.8527692904</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-182097.0324692904</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-177097.0325398704</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-208460.2493398704</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-207684.2493398704</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-205960.1321398703</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-205960.1321398703</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-203960.1321398703</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-203960.1321398703</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-226675.9057782003</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-226675.9057782003</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-218675.9057782003</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-218675.9057782003</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-184550.6517384503</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-185193.6197384503</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-128576.9814384503</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-128576.9814384503</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-141039.4470384503</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-141039.4470384503</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-154558.1269384503</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-154558.1269384503</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-143515.5156995203</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-75192.48364305033</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-104702.5582960303</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-204877.4075960303</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-204877.4075960303</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-204877.4075960303</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-240400.9714960303</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-263677.2514960304</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-263677.2514960304</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-352467.0958960304</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-352467.0958960304</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-319499.7475960304</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-380877.2614960304</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-946405.0458424303</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-963987.3844901304</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1015801.12749013</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1015801.12749013</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-1293078.64017712</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1945802.29847712</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-1912183.11177712</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1906925.24377712</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1887019.24377712</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1956957.95637712</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1955670.09477712</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-1955670.09477712</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-1955670.09477712</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-1939004.6639734</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1964836.45287712</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1963836.45287712</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1965836.45287712</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-2040414.72967712</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 XLM ohlcv.xlsx
@@ -1900,7 +1900,7 @@
         <v>890730.4366722094</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>870729.4436722094</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>860729.4436722094</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>852237.3970722094</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>852537.3970722094</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>860865.3970722094</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>790743.3948722094</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>789280.0587722094</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>148134.2892426696</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>173981.6262426696</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>188305.9742426696</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>101351.9004426696</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>115685.2795426697</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>80311.38704266965</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>66146.40284266965</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>84885.87463300965</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>83611.78363300965</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>82031.08943300965</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>44141.68923300965</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-161069.2121669904</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-164835.4115669904</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-164835.4115669904</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-227431.6580669904</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-227431.6580669904</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-228205.6580669904</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-219490.4035669904</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-207978.9849407804</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-207978.9849407804</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-175098.8527692904</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-182097.0324692904</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-177097.0325398704</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-208460.2493398704</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-207684.2493398704</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-205960.1321398703</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-205960.1321398703</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-203960.1321398703</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-203960.1321398703</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-226675.9057782003</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-226675.9057782003</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-218675.9057782003</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-218675.9057782003</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-184550.6517384503</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-185193.6197384503</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-128576.9814384503</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-128576.9814384503</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-141039.4470384503</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-141039.4470384503</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-154558.1269384503</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-154558.1269384503</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-143515.5156995203</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-75192.48364305033</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-104702.5582960303</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-204877.4075960303</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-204877.4075960303</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-204877.4075960303</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-240400.9714960303</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-263677.2514960304</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-263677.2514960304</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-352467.0958960304</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-352467.0958960304</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-365232.3995960304</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-319499.7475960304</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-380877.2614960304</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-386917.5884960304</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-946405.0458424303</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-963987.3844901304</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1015801.12749013</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1015801.12749013</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1945802.29847712</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1906925.24377712</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1931582.65847712</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1956957.95637712</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1955670.09477712</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-1955670.09477712</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-1939004.6639734</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1964836.45287712</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1963836.45287712</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1965836.45287712</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-2045460.45287712</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-2040414.72967712</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
